--- a/UPP1/Copy of FC2023 08463  Instalment Plans KPI Data 2023 24 - Essential Services Commission - July 2023 to June 2024.xlsx
+++ b/UPP1/Copy of FC2023 08463  Instalment Plans KPI Data 2023 24 - Essential Services Commission - July 2023 to June 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.dilley\development\ESC\UPP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1501BB87-D0A9-462C-BE41-A7260230D2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BF3777-299B-4039-B805-0E5407460940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11805" yWindow="2340" windowWidth="28770" windowHeight="15450" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
